--- a/Suivi-tache.xlsx
+++ b/Suivi-tache.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Projects\web\UwAmp\www\Projet-48h-20230709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Projects\web\UwAmp\www\Exam-juillet2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1170EB-71DA-4C20-A4E6-35CE4F9F9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A6F5B1-24F2-4A4E-932A-38F821659104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{326CDC2B-B960-2746-B82E-7E70916B4721}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Taches</t>
   </si>
@@ -45,54 +45,9 @@
     <t>Catégorie</t>
   </si>
   <si>
-    <t>Liste</t>
-  </si>
-  <si>
-    <t>Ajout</t>
-  </si>
-  <si>
-    <t>Suppression</t>
-  </si>
-  <si>
-    <t>Modification</t>
-  </si>
-  <si>
-    <t>Recherche multicritère</t>
-  </si>
-  <si>
-    <t>Tri colonne</t>
-  </si>
-  <si>
     <t>Avancement</t>
   </si>
   <si>
-    <t>Pagination</t>
-  </si>
-  <si>
-    <t>Gestion vol</t>
-  </si>
-  <si>
-    <t>Ajout avion</t>
-  </si>
-  <si>
-    <t>Gestion avion</t>
-  </si>
-  <si>
-    <t>Ajout avec upload image</t>
-  </si>
-  <si>
-    <t>Proposition Piste</t>
-  </si>
-  <si>
-    <t>Export Excel</t>
-  </si>
-  <si>
-    <t>Export PDF</t>
-  </si>
-  <si>
-    <t>Webservice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estimation: </t>
   </si>
   <si>
@@ -123,12 +78,6 @@
     <t>Integration</t>
   </si>
   <si>
-    <t>Gestion client</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>Qui</t>
   </si>
   <si>
@@ -141,16 +90,43 @@
     <t>Conception</t>
   </si>
   <si>
-    <t>Rabe</t>
-  </si>
-  <si>
-    <t>Andry</t>
-  </si>
-  <si>
-    <t>Vola</t>
-  </si>
-  <si>
     <t>Anrick</t>
+  </si>
+  <si>
+    <t>Santatra</t>
+  </si>
+  <si>
+    <t>Gestion user</t>
+  </si>
+  <si>
+    <t>inscription/login</t>
+  </si>
+  <si>
+    <t>Nandraina</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>objectif</t>
+  </si>
+  <si>
+    <t>Gestion regime</t>
+  </si>
+  <si>
+    <t>choix regime</t>
+  </si>
+  <si>
+    <t>proposition</t>
+  </si>
+  <si>
+    <t>Gestion vola</t>
+  </si>
+  <si>
+    <t>ajout code</t>
   </si>
 </sst>
 </file>
@@ -558,7 +534,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -581,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -596,21 +572,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>30</v>
@@ -629,22 +605,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -656,164 +632,164 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4" si="2">(F4/(F4+G4))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15</v>
-      </c>
       <c r="F5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5" si="3">(F5/(F5+G5))</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G22" si="4">E6-F6</f>
-        <v>0</v>
+        <f t="shared" ref="G6:G17" si="2">E6-F6</f>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
@@ -822,181 +798,181 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
       </c>
       <c r="F10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>15</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -1005,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="H16" s="5">
@@ -1015,168 +991,28 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" ref="G21" si="5">E21-F21</f>
-        <v>15</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" ref="H21" si="6">(F21/(F21+G21))</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3">
-        <v>180</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1187,33 +1023,33 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <f>SUM(E2:E22)</f>
-        <v>735</v>
+        <f>SUM(E2:E17)</f>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23:G23" si="7">SUM(F2:F22)</f>
-        <v>345</v>
+        <f>SUM(F2:F17)</f>
+        <v>60</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
-        <v>445</v>
+        <f>SUM(G2:G17)</f>
+        <v>340</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>0.43670886075949367</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1221,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1229,12 +1065,12 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi-tache.xlsx
+++ b/Suivi-tache.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Projects\web\UwAmp\www\Exam-juillet2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A6F5B1-24F2-4A4E-932A-38F821659104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108C75F0-A6CA-4DCA-BC4E-A991D17E449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{326CDC2B-B960-2746-B82E-7E70916B4721}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -592,15 +592,14 @@
         <v>30</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G2" s="4">
-        <f>E2-F2</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2" si="0">(F2/(F2+G2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -647,14 +646,14 @@
         <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,15 +700,14 @@
         <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G17" si="2">E6-F6</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G6:G17" si="2">E7-F7</f>
         <v>30</v>
       </c>
       <c r="H7" s="5">
@@ -1028,15 +1026,15 @@
       </c>
       <c r="F23" s="3">
         <f>SUM(F2:F17)</f>
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G17)</f>
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.53389830508474578</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
